--- a/InfisMaturita/literatura/others/Vlastni_seznam_cetby_-_sablona.xlsx
+++ b/InfisMaturita/literatura/others/Vlastni_seznam_cetby_-_sablona.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smidl\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\VNK83OU1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ADDDFE8-0AB2-481E-8F54-F1BA7E8B6F2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
-    <sheet name="List2" sheetId="2" r:id="rId2"/>
-    <sheet name="List3" sheetId="3" r:id="rId3"/>
+    <sheet name="List1" sheetId="1" r:id="rId3"/>
+    <sheet name="List2" sheetId="2" r:id="rId4"/>
+    <sheet name="List3" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -85,15 +85,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
@@ -147,61 +155,161 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -214,7 +322,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -242,10 +350,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -256,11 +364,9 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4676775" cy="802043"/>
+          <a:ext cx="4676775" cy="800100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -588,26 +694,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A2">
+      <selection pane="topLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.428571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.428571428571429" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9.142857142857142" style="1"/>
+    <col min="7" max="7" width="8.285714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.857142857142858" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.142857142857142" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.142857142857142" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" ht="106.5" customHeight="1"/>
+    <row r="2" spans="1:9" ht="18">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -620,7 +726,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -635,7 +741,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -646,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -658,7 +764,7 @@
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -666,7 +772,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="15">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -674,8 +780,8 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" s="5" customFormat="1" ht="15"/>
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="15">
       <c r="A10" s="4"/>
       <c r="B10" s="15" t="s">
         <v>6</v>
@@ -687,7 +793,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="12.75">
       <c r="A11" s="8">
         <v>1</v>
       </c>
@@ -704,7 +810,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="12.75">
       <c r="A12" s="8">
         <v>2</v>
       </c>
@@ -721,7 +827,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="12.75">
       <c r="A13" s="8">
         <v>3</v>
       </c>
@@ -738,7 +844,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="12.75">
       <c r="A14" s="8">
         <v>4</v>
       </c>
@@ -751,7 +857,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="12.75">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -764,7 +870,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="12.75">
       <c r="A16" s="8">
         <v>6</v>
       </c>
@@ -777,7 +883,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="12.75">
       <c r="A17" s="8">
         <v>7</v>
       </c>
@@ -790,7 +896,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:9" s="5" customFormat="1" ht="15">
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -799,7 +905,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" s="5" customFormat="1" ht="15">
       <c r="B19" s="15" t="s">
         <v>13</v>
       </c>
@@ -810,7 +916,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="12.75">
       <c r="A20" s="8">
         <v>8</v>
       </c>
@@ -823,7 +929,7 @@
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="12.75">
       <c r="A21" s="8">
         <v>9</v>
       </c>
@@ -836,7 +942,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="12.75">
       <c r="A22" s="8">
         <v>10</v>
       </c>
@@ -849,7 +955,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="12.75">
       <c r="A23" s="8">
         <v>11</v>
       </c>
@@ -862,7 +968,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="12.75">
       <c r="A24" s="8">
         <v>12</v>
       </c>
@@ -875,7 +981,7 @@
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="12.75">
       <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="10"/>
@@ -886,7 +992,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" s="5" customFormat="1" ht="15">
       <c r="B26" s="15" t="s">
         <v>14</v>
       </c>
@@ -897,7 +1003,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="12.75">
       <c r="A27" s="8">
         <v>13</v>
       </c>
@@ -910,7 +1016,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="12.75">
       <c r="A28" s="8">
         <v>14</v>
       </c>
@@ -923,7 +1029,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="12.75">
       <c r="A29" s="8">
         <v>15</v>
       </c>
@@ -936,7 +1042,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="12.75">
       <c r="A30" s="8">
         <v>16</v>
       </c>
@@ -949,7 +1055,7 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="12.75">
       <c r="A31" s="8"/>
       <c r="B31" s="3"/>
       <c r="C31" s="10"/>
@@ -960,7 +1066,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="8"/>
       <c r="B32" s="15" t="s">
         <v>15</v>
@@ -973,7 +1079,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="12.75">
       <c r="A33" s="8">
         <v>17</v>
       </c>
@@ -986,7 +1092,7 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="12.75">
       <c r="A34" s="8">
         <v>18</v>
       </c>
@@ -999,7 +1105,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="12.75">
       <c r="A35" s="8">
         <v>19</v>
       </c>
@@ -1012,7 +1118,7 @@
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="12.75">
       <c r="A36" s="8">
         <v>20</v>
       </c>
@@ -1025,7 +1131,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="12.75">
       <c r="A37" s="8"/>
       <c r="B37" s="3"/>
       <c r="C37" s="10"/>
@@ -1036,7 +1142,7 @@
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="12.75">
       <c r="A38" s="8"/>
       <c r="B38" s="3"/>
       <c r="C38" s="10"/>
@@ -1047,7 +1153,7 @@
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="12.75">
       <c r="A39" s="8"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
@@ -1058,7 +1164,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="12.75">
       <c r="A40" s="8"/>
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
@@ -1069,7 +1175,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:9" s="5" customFormat="1" ht="15">
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -1078,8 +1184,8 @@
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" s="5" customFormat="1" ht="15"/>
+    <row r="43" spans="1:8" s="5" customFormat="1" ht="15">
       <c r="A43" s="14" t="s">
         <v>16</v>
       </c>
@@ -1091,7 +1197,7 @@
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="44" s="5" customFormat="1" ht="15"/>
   </sheetData>
   <mergeCells count="37">
     <mergeCell ref="C18:I18"/>
@@ -1132,40 +1238,37 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.94488188976377963" right="0.43307086614173229" top="0.59055118110236227" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.9448818897637796" right="0.4330708661417323" top="0.5905511811023623" bottom="0.984251968503937" header="0.5118110236220472" footer="0.5118110236220472"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.787401575" right="0.787401575" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.787401575" right="0.787401575" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
